--- a/JupyterNotebooks/AveragedIntensities-SRP/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/AlphaFiberF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9464553314121037</v>
+        <v>0.9507204610951009</v>
       </c>
       <c r="D3">
-        <v>1.050706051873199</v>
+        <v>1.045842939481268</v>
       </c>
       <c r="E3">
-        <v>1.001585014409222</v>
+        <v>1.001059077809798</v>
       </c>
       <c r="F3">
-        <v>0.9464553314121037</v>
+        <v>0.9507204610951009</v>
       </c>
       <c r="G3">
-        <v>1.009589337175792</v>
+        <v>1.008364553314121</v>
       </c>
       <c r="H3">
-        <v>1.025994236311239</v>
+        <v>1.022853025936599</v>
       </c>
       <c r="I3">
-        <v>0.9877305475504323</v>
+        <v>0.9885951008645533</v>
       </c>
       <c r="J3">
-        <v>1.050706051873199</v>
+        <v>1.045842939481268</v>
       </c>
       <c r="K3">
-        <v>0.9464553314121037</v>
+        <v>0.9507204610951009</v>
       </c>
       <c r="L3">
-        <v>1.02614553314121</v>
+        <v>1.001059077809798</v>
       </c>
       <c r="M3">
-        <v>1.02614553314121</v>
+        <v>1.023451008645533</v>
       </c>
       <c r="N3">
-        <v>1.020626801152738</v>
+        <v>1.023451008645533</v>
       </c>
       <c r="O3">
-        <v>0.9995821325648415</v>
+        <v>1.018422190201729</v>
       </c>
       <c r="P3">
-        <v>0.9995821325648414</v>
+        <v>0.9992074927953891</v>
       </c>
       <c r="Q3">
-        <v>0.986300432276657</v>
+        <v>0.9992074927953891</v>
       </c>
       <c r="R3">
-        <v>0.986300432276657</v>
+        <v>0.987085734870317</v>
       </c>
       <c r="S3">
-        <v>1.003676753121998</v>
+        <v>0.987085734870317</v>
+      </c>
+      <c r="T3">
+        <v>1.00290585975024</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9987781334704476</v>
+        <v>1.001276867667034</v>
       </c>
       <c r="D4">
-        <v>0.9948162845060318</v>
+        <v>0.9927242129093838</v>
       </c>
       <c r="E4">
-        <v>0.9935979184739798</v>
+        <v>0.9929987323325614</v>
       </c>
       <c r="F4">
-        <v>0.9987781334704476</v>
+        <v>1.001276867667034</v>
       </c>
       <c r="G4">
-        <v>0.9955940689070667</v>
+        <v>0.995181361977499</v>
       </c>
       <c r="H4">
-        <v>0.989761032880885</v>
+        <v>0.9876187527966136</v>
       </c>
       <c r="I4">
-        <v>0.9945847560556764</v>
+        <v>0.9949752787408748</v>
       </c>
       <c r="J4">
-        <v>0.9948162845060318</v>
+        <v>0.9927242129093838</v>
       </c>
       <c r="K4">
-        <v>0.9987781334704476</v>
+        <v>1.001276867667034</v>
       </c>
       <c r="L4">
-        <v>0.9942071014900058</v>
+        <v>0.9929987323325614</v>
       </c>
       <c r="M4">
-        <v>0.9942071014900058</v>
+        <v>0.9928614726209726</v>
       </c>
       <c r="N4">
-        <v>0.9946694239623595</v>
+        <v>0.9928614726209726</v>
       </c>
       <c r="O4">
-        <v>0.9957307788168198</v>
+        <v>0.9936347690731481</v>
       </c>
       <c r="P4">
-        <v>0.9957307788168198</v>
+        <v>0.995666604302993</v>
       </c>
       <c r="Q4">
-        <v>0.9964926174802268</v>
+        <v>0.995666604302993</v>
       </c>
       <c r="R4">
-        <v>0.9964926174802268</v>
+        <v>0.9970691701440033</v>
       </c>
       <c r="S4">
-        <v>0.9945220323823479</v>
+        <v>0.9970691701440033</v>
+      </c>
+      <c r="T4">
+        <v>0.9941292010706612</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00303876618324</v>
+        <v>1.003714561987474</v>
       </c>
       <c r="D5">
-        <v>0.9950006800769148</v>
+        <v>0.9948710600980648</v>
       </c>
       <c r="E5">
-        <v>0.991220445367709</v>
+        <v>0.9909624085808176</v>
       </c>
       <c r="F5">
-        <v>1.00303876618324</v>
+        <v>1.003714561987474</v>
       </c>
       <c r="G5">
-        <v>0.9970741832231292</v>
+        <v>0.9970387717646837</v>
       </c>
       <c r="H5">
-        <v>0.9827114127471618</v>
+        <v>0.9819478282985443</v>
       </c>
       <c r="I5">
-        <v>0.9941625592522311</v>
+        <v>0.9942763554956564</v>
       </c>
       <c r="J5">
-        <v>0.9950006800769148</v>
+        <v>0.9948710600980648</v>
       </c>
       <c r="K5">
-        <v>1.00303876618324</v>
+        <v>1.003714561987474</v>
       </c>
       <c r="L5">
-        <v>0.9931105627223119</v>
+        <v>0.9909624085808176</v>
       </c>
       <c r="M5">
-        <v>0.9931105627223119</v>
+        <v>0.9929167343394412</v>
       </c>
       <c r="N5">
-        <v>0.9944317695559177</v>
+        <v>0.9929167343394412</v>
       </c>
       <c r="O5">
-        <v>0.9964199638759546</v>
+        <v>0.994290746814522</v>
       </c>
       <c r="P5">
-        <v>0.9964199638759546</v>
+        <v>0.9965160102221186</v>
       </c>
       <c r="Q5">
-        <v>0.9980746644527758</v>
+        <v>0.9965160102221188</v>
       </c>
       <c r="R5">
-        <v>0.9980746644527758</v>
+        <v>0.9983156481634574</v>
       </c>
       <c r="S5">
-        <v>0.9938680078083976</v>
+        <v>0.9983156481634574</v>
+      </c>
+      <c r="T5">
+        <v>0.9938018310375401</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9940921381133158</v>
+        <v>0.9945668344998445</v>
       </c>
       <c r="D6">
-        <v>0.9955347044600023</v>
+        <v>0.995538677544038</v>
       </c>
       <c r="E6">
-        <v>0.995677501595878</v>
+        <v>0.9954158728103945</v>
       </c>
       <c r="F6">
-        <v>0.9940921381133158</v>
+        <v>0.9945668344998445</v>
       </c>
       <c r="G6">
-        <v>0.9947673422811467</v>
+        <v>0.9948902203841825</v>
       </c>
       <c r="H6">
-        <v>0.9960990577384562</v>
+        <v>0.9953592397922771</v>
       </c>
       <c r="I6">
-        <v>0.9949150486982462</v>
+        <v>0.9949000558573908</v>
       </c>
       <c r="J6">
-        <v>0.9955347044600023</v>
+        <v>0.995538677544038</v>
       </c>
       <c r="K6">
-        <v>0.9940921381133158</v>
+        <v>0.9945668344998445</v>
       </c>
       <c r="L6">
-        <v>0.9956061030279402</v>
+        <v>0.9954158728103945</v>
       </c>
       <c r="M6">
-        <v>0.9956061030279402</v>
+        <v>0.9954772751772163</v>
       </c>
       <c r="N6">
-        <v>0.9953265161123422</v>
+        <v>0.9954772751772163</v>
       </c>
       <c r="O6">
-        <v>0.9951014480563987</v>
+        <v>0.9952815902462051</v>
       </c>
       <c r="P6">
-        <v>0.9951014480563987</v>
+        <v>0.9951737949514258</v>
       </c>
       <c r="Q6">
-        <v>0.9948491205706279</v>
+        <v>0.9951737949514258</v>
       </c>
       <c r="R6">
-        <v>0.9948491205706279</v>
+        <v>0.9950220548385305</v>
       </c>
       <c r="S6">
-        <v>0.9951809654811741</v>
+        <v>0.9950220548385305</v>
+      </c>
+      <c r="T6">
+        <v>0.995111816814688</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9935122917394894</v>
+        <v>1.254046386786579</v>
       </c>
       <c r="D7">
-        <v>0.9956782041916629</v>
+        <v>0.5902852846375484</v>
       </c>
       <c r="E7">
-        <v>0.9958302196493651</v>
+        <v>1.013491075267944</v>
       </c>
       <c r="F7">
-        <v>0.9935122917394894</v>
+        <v>1.254046386786579</v>
       </c>
       <c r="G7">
-        <v>0.9951069915089159</v>
+        <v>0.817393697849082</v>
       </c>
       <c r="H7">
-        <v>0.9958445734285466</v>
+        <v>1.007450620122221</v>
       </c>
       <c r="I7">
-        <v>0.9948297475606833</v>
+        <v>1.080894387589682</v>
       </c>
       <c r="J7">
-        <v>0.9956782041916629</v>
+        <v>0.5902852846375484</v>
       </c>
       <c r="K7">
-        <v>0.9935122917394894</v>
+        <v>1.254046386786579</v>
       </c>
       <c r="L7">
-        <v>0.9957542119205141</v>
+        <v>1.013491075267944</v>
       </c>
       <c r="M7">
-        <v>0.9957542119205141</v>
+        <v>0.8018881799527461</v>
       </c>
       <c r="N7">
-        <v>0.9955384717833148</v>
+        <v>0.8018881799527461</v>
       </c>
       <c r="O7">
-        <v>0.9950069051935059</v>
+        <v>0.8070566859181914</v>
       </c>
       <c r="P7">
-        <v>0.9950069051935059</v>
+        <v>0.9526075822306902</v>
       </c>
       <c r="Q7">
-        <v>0.9946332518300017</v>
+        <v>0.9526075822306902</v>
       </c>
       <c r="R7">
-        <v>0.9946332518300017</v>
+        <v>1.027967283369662</v>
       </c>
       <c r="S7">
-        <v>0.9951336713464439</v>
+        <v>1.027967283369662</v>
+      </c>
+      <c r="T7">
+        <v>0.9605935753755093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.9282756955364243</v>
+      </c>
+      <c r="D8">
+        <v>0.9520608028659341</v>
+      </c>
+      <c r="E8">
+        <v>1.044576397075839</v>
+      </c>
+      <c r="F8">
+        <v>0.9282756955364243</v>
+      </c>
+      <c r="G8">
+        <v>0.9556903310574065</v>
+      </c>
+      <c r="H8">
+        <v>1.127367987636346</v>
+      </c>
+      <c r="I8">
+        <v>1.012396795706621</v>
+      </c>
+      <c r="J8">
+        <v>0.9520608028659341</v>
+      </c>
+      <c r="K8">
+        <v>0.9282756955364243</v>
+      </c>
+      <c r="L8">
+        <v>1.044576397075839</v>
+      </c>
+      <c r="M8">
+        <v>0.9983185999708863</v>
+      </c>
+      <c r="N8">
+        <v>0.9983185999708863</v>
+      </c>
+      <c r="O8">
+        <v>0.9841091769997264</v>
+      </c>
+      <c r="P8">
+        <v>0.974970965159399</v>
+      </c>
+      <c r="Q8">
+        <v>0.974970965159399</v>
+      </c>
+      <c r="R8">
+        <v>0.9632971477536553</v>
+      </c>
+      <c r="S8">
+        <v>0.9632971477536553</v>
+      </c>
+      <c r="T8">
+        <v>1.003394668313095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.98</v>
+      </c>
+      <c r="D9">
+        <v>0.22</v>
+      </c>
+      <c r="E9">
+        <v>0.83</v>
+      </c>
+      <c r="F9">
+        <v>1.98</v>
+      </c>
+      <c r="G9">
+        <v>0.64</v>
+      </c>
+      <c r="H9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.14</v>
+      </c>
+      <c r="J9">
+        <v>0.22</v>
+      </c>
+      <c r="K9">
+        <v>1.98</v>
+      </c>
+      <c r="L9">
+        <v>0.83</v>
+      </c>
+      <c r="M9">
+        <v>0.525</v>
+      </c>
+      <c r="N9">
+        <v>0.525</v>
+      </c>
+      <c r="O9">
+        <v>0.5633333333333334</v>
+      </c>
+      <c r="P9">
+        <v>1.01</v>
+      </c>
+      <c r="Q9">
+        <v>1.01</v>
+      </c>
+      <c r="R9">
+        <v>1.2525</v>
+      </c>
+      <c r="S9">
+        <v>1.2525</v>
+      </c>
+      <c r="T9">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1.07</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>1.27</v>
+      </c>
+      <c r="F10">
+        <v>1.07</v>
+      </c>
+      <c r="G10">
+        <v>0.42</v>
+      </c>
+      <c r="H10">
+        <v>1.94</v>
+      </c>
+      <c r="I10">
+        <v>1.23</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>1.07</v>
+      </c>
+      <c r="L10">
+        <v>1.27</v>
+      </c>
+      <c r="M10">
+        <v>0.735</v>
+      </c>
+      <c r="N10">
+        <v>0.735</v>
+      </c>
+      <c r="O10">
+        <v>0.63</v>
+      </c>
+      <c r="P10">
+        <v>0.8466666666666667</v>
+      </c>
+      <c r="Q10">
+        <v>0.8466666666666667</v>
+      </c>
+      <c r="R10">
+        <v>0.9025000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.9025000000000001</v>
+      </c>
+      <c r="T10">
+        <v>1.021666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9971325291172008</v>
+      </c>
+      <c r="D11">
+        <v>0.9943018859617164</v>
+      </c>
+      <c r="E11">
+        <v>0.9945876637685392</v>
+      </c>
+      <c r="F11">
+        <v>0.9971325291172008</v>
+      </c>
+      <c r="G11">
+        <v>0.9948649635615939</v>
+      </c>
+      <c r="H11">
+        <v>0.9928729087590665</v>
+      </c>
+      <c r="I11">
+        <v>0.9949228420563254</v>
+      </c>
+      <c r="J11">
+        <v>0.9943018859617164</v>
+      </c>
+      <c r="K11">
+        <v>0.9971325291172008</v>
+      </c>
+      <c r="L11">
+        <v>0.9945876637685392</v>
+      </c>
+      <c r="M11">
+        <v>0.9944447748651278</v>
+      </c>
+      <c r="N11">
+        <v>0.9944447748651278</v>
+      </c>
+      <c r="O11">
+        <v>0.9945848377639499</v>
+      </c>
+      <c r="P11">
+        <v>0.9953406929491523</v>
+      </c>
+      <c r="Q11">
+        <v>0.9953406929491523</v>
+      </c>
+      <c r="R11">
+        <v>0.9957886519911644</v>
+      </c>
+      <c r="S11">
+        <v>0.9957886519911644</v>
+      </c>
+      <c r="T11">
+        <v>0.994780465537407</v>
       </c>
     </row>
   </sheetData>
